--- a/REVER_DailyTracker_20200510.xlsx
+++ b/REVER_DailyTracker_20200510.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="7" rupBuild="4505"/>
-  <workbookPr codeName="ThisWorkbook"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22730"/>
+  <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\mamatha\DailyTracker\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{05F48DE2-C6A4-49A1-9AE0-CDAA6B472A13}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="9"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Balraj" sheetId="1" r:id="rId1"/>
@@ -18,16 +24,10 @@
     <sheet name="Rahman" sheetId="14" r:id="rId9"/>
     <sheet name="Mathes" sheetId="13" r:id="rId10"/>
   </sheets>
-  <calcPr calcId="124519" iterate="1"/>
-  <extLst xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main">
-    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+  <calcPr calcId="124519"/>
+  <extLst>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -118,11 +118,11 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="[$-14009]yyyy\-mm\-dd;@"/>
   </numFmts>
-  <fonts count="3">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -322,7 +322,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light"/>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -374,7 +374,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -568,14 +568,14 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:G23"/>
   <sheetViews>
@@ -583,18 +583,18 @@
       <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="6.140625" customWidth="1"/>
-    <col min="2" max="2" width="13.5703125" customWidth="1"/>
-    <col min="3" max="3" width="15.42578125" customWidth="1"/>
-    <col min="4" max="4" width="44.7109375" customWidth="1"/>
-    <col min="5" max="5" width="18.85546875" customWidth="1"/>
-    <col min="6" max="6" width="18.140625" customWidth="1"/>
-    <col min="7" max="7" width="104.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="6.109375" customWidth="1"/>
+    <col min="2" max="2" width="13.5546875" customWidth="1"/>
+    <col min="3" max="3" width="15.44140625" customWidth="1"/>
+    <col min="4" max="4" width="44.6640625" customWidth="1"/>
+    <col min="5" max="5" width="18.88671875" customWidth="1"/>
+    <col min="6" max="6" width="18.109375" customWidth="1"/>
+    <col min="7" max="7" width="104.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>7</v>
       </c>
@@ -615,7 +615,7 @@
       </c>
       <c r="G1" s="5"/>
     </row>
-    <row r="2" spans="1:7" s="4" customFormat="1" ht="42" customHeight="1">
+    <row r="2" spans="1:7" s="4" customFormat="1" ht="42" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D2" s="15" t="s">
         <v>10</v>
       </c>
@@ -625,8 +625,8 @@
         <v>14</v>
       </c>
     </row>
-    <row r="3" spans="1:7" s="4" customFormat="1" ht="42" customHeight="1"/>
-    <row r="4" spans="1:7" s="4" customFormat="1" ht="24.6" customHeight="1">
+    <row r="3" spans="1:7" s="4" customFormat="1" ht="42" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="4" spans="1:7" s="4" customFormat="1" ht="24.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D4" s="18" t="s">
         <v>16</v>
       </c>
@@ -638,7 +638,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="5" spans="1:7" s="4" customFormat="1">
+    <row r="5" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="D5" s="18" t="s">
         <v>16</v>
       </c>
@@ -649,41 +649,41 @@
         <v>17</v>
       </c>
     </row>
-    <row r="6" spans="1:7" s="4" customFormat="1"/>
-    <row r="7" spans="1:7" s="4" customFormat="1"/>
-    <row r="8" spans="1:7" s="4" customFormat="1"/>
-    <row r="9" spans="1:7" s="4" customFormat="1"/>
-    <row r="10" spans="1:7" s="4" customFormat="1"/>
-    <row r="11" spans="1:7" s="4" customFormat="1"/>
-    <row r="12" spans="1:7" s="4" customFormat="1"/>
-    <row r="13" spans="1:7" s="4" customFormat="1"/>
-    <row r="14" spans="1:7" s="4" customFormat="1"/>
-    <row r="15" spans="1:7" s="4" customFormat="1"/>
-    <row r="16" spans="1:7" s="4" customFormat="1"/>
-    <row r="19" spans="2:3">
+    <row r="6" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="7" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="8" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="9" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="10" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="11" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="12" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="13" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="14" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="15" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="16" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="19" spans="2:3" x14ac:dyDescent="0.3">
       <c r="C19" s="12" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="2:3">
+    <row r="20" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B20" s="8"/>
       <c r="C20" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="21" spans="2:3">
+    <row r="21" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B21" s="9"/>
       <c r="C21" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="22" spans="2:3">
+    <row r="22" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B22" s="10"/>
       <c r="C22" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="23" spans="2:3">
+    <row r="23" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B23" s="11"/>
       <c r="C23" t="s">
         <v>11</v>
@@ -696,26 +696,26 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
   <sheetPr codeName="Sheet10"/>
   <dimension ref="A1:G26"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+    <sheetView topLeftCell="A2" workbookViewId="0">
       <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="6.140625" customWidth="1"/>
-    <col min="2" max="2" width="13.5703125" customWidth="1"/>
-    <col min="3" max="3" width="15.42578125" customWidth="1"/>
-    <col min="4" max="4" width="44.7109375" customWidth="1"/>
-    <col min="5" max="5" width="18.85546875" customWidth="1"/>
-    <col min="6" max="6" width="18.140625" customWidth="1"/>
-    <col min="7" max="7" width="48.7109375" customWidth="1"/>
+    <col min="1" max="1" width="6.109375" customWidth="1"/>
+    <col min="2" max="2" width="13.5546875" customWidth="1"/>
+    <col min="3" max="3" width="15.44140625" customWidth="1"/>
+    <col min="4" max="4" width="44.6640625" customWidth="1"/>
+    <col min="5" max="5" width="18.88671875" customWidth="1"/>
+    <col min="6" max="6" width="18.109375" customWidth="1"/>
+    <col min="7" max="7" width="48.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>7</v>
       </c>
@@ -738,7 +738,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:7">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -759,7 +759,7 @@
       </c>
       <c r="G2" s="1"/>
     </row>
-    <row r="3" spans="1:7">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -780,7 +780,7 @@
       </c>
       <c r="G3" s="1"/>
     </row>
-    <row r="4" spans="1:7" s="4" customFormat="1" ht="30">
+    <row r="4" spans="1:7" s="4" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A4" s="4">
         <v>3</v>
       </c>
@@ -800,7 +800,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:7" s="4" customFormat="1">
+    <row r="5" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A5" s="24">
         <v>4</v>
       </c>
@@ -820,44 +820,44 @@
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:7" s="4" customFormat="1"/>
-    <row r="7" spans="1:7" s="4" customFormat="1"/>
-    <row r="8" spans="1:7" s="4" customFormat="1"/>
-    <row r="9" spans="1:7" s="4" customFormat="1"/>
-    <row r="10" spans="1:7" s="4" customFormat="1"/>
-    <row r="11" spans="1:7" s="4" customFormat="1"/>
-    <row r="12" spans="1:7" s="4" customFormat="1"/>
-    <row r="13" spans="1:7" s="4" customFormat="1"/>
-    <row r="14" spans="1:7" s="4" customFormat="1"/>
-    <row r="15" spans="1:7" s="4" customFormat="1"/>
-    <row r="16" spans="1:7" s="4" customFormat="1"/>
-    <row r="17" spans="2:3" s="4" customFormat="1"/>
-    <row r="18" spans="2:3" s="4" customFormat="1"/>
-    <row r="19" spans="2:3" s="4" customFormat="1"/>
-    <row r="22" spans="2:3">
+    <row r="6" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="7" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="8" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="9" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="10" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="11" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="12" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="13" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="14" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="15" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="16" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="17" spans="2:3" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="18" spans="2:3" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="19" spans="2:3" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="22" spans="2:3" x14ac:dyDescent="0.3">
       <c r="C22" s="12" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="2:3">
+    <row r="23" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B23" s="8"/>
       <c r="C23" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="24" spans="2:3">
+    <row r="24" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B24" s="9"/>
       <c r="C24" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="25" spans="2:3">
+    <row r="25" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B25" s="10"/>
       <c r="C25" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="26" spans="2:3">
+    <row r="26" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B26" s="11"/>
       <c r="C26" t="s">
         <v>11</v>
@@ -870,7 +870,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:G26"/>
   <sheetViews>
@@ -878,18 +878,18 @@
       <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="6.140625" customWidth="1"/>
-    <col min="2" max="2" width="13.5703125" customWidth="1"/>
-    <col min="3" max="3" width="15.42578125" customWidth="1"/>
-    <col min="4" max="4" width="44.7109375" customWidth="1"/>
-    <col min="5" max="5" width="18.85546875" customWidth="1"/>
-    <col min="6" max="6" width="18.140625" customWidth="1"/>
-    <col min="7" max="7" width="48.7109375" customWidth="1"/>
+    <col min="1" max="1" width="6.109375" customWidth="1"/>
+    <col min="2" max="2" width="13.5546875" customWidth="1"/>
+    <col min="3" max="3" width="15.44140625" customWidth="1"/>
+    <col min="4" max="4" width="44.6640625" customWidth="1"/>
+    <col min="5" max="5" width="18.88671875" customWidth="1"/>
+    <col min="6" max="6" width="18.109375" customWidth="1"/>
+    <col min="7" max="7" width="48.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>7</v>
       </c>
@@ -912,7 +912,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:7">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -933,7 +933,7 @@
       </c>
       <c r="G2" s="1"/>
     </row>
-    <row r="3" spans="1:7">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" s="1"/>
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
@@ -942,46 +942,46 @@
       <c r="F3" s="13"/>
       <c r="G3" s="1"/>
     </row>
-    <row r="4" spans="1:7" s="4" customFormat="1"/>
-    <row r="5" spans="1:7" s="4" customFormat="1"/>
-    <row r="6" spans="1:7" s="4" customFormat="1"/>
-    <row r="7" spans="1:7" s="4" customFormat="1"/>
-    <row r="8" spans="1:7" s="4" customFormat="1"/>
-    <row r="9" spans="1:7" s="4" customFormat="1"/>
-    <row r="10" spans="1:7" s="4" customFormat="1"/>
-    <row r="11" spans="1:7" s="4" customFormat="1"/>
-    <row r="12" spans="1:7" s="4" customFormat="1"/>
-    <row r="13" spans="1:7" s="4" customFormat="1"/>
-    <row r="14" spans="1:7" s="4" customFormat="1"/>
-    <row r="15" spans="1:7" s="4" customFormat="1"/>
-    <row r="16" spans="1:7" s="4" customFormat="1"/>
-    <row r="17" spans="2:3" s="4" customFormat="1"/>
-    <row r="18" spans="2:3" s="4" customFormat="1"/>
-    <row r="19" spans="2:3" s="4" customFormat="1"/>
-    <row r="22" spans="2:3">
+    <row r="4" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="5" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="6" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="7" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="8" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="9" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="10" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="11" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="12" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="13" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="14" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="15" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="16" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="17" spans="2:3" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="18" spans="2:3" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="19" spans="2:3" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="22" spans="2:3" x14ac:dyDescent="0.3">
       <c r="C22" s="12" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="2:3">
+    <row r="23" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B23" s="8"/>
       <c r="C23" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="24" spans="2:3">
+    <row r="24" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B24" s="9"/>
       <c r="C24" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="25" spans="2:3">
+    <row r="25" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B25" s="10"/>
       <c r="C25" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="26" spans="2:3">
+    <row r="26" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B26" s="11"/>
       <c r="C26" t="s">
         <v>11</v>
@@ -994,7 +994,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:G26"/>
   <sheetViews>
@@ -1002,18 +1002,18 @@
       <selection activeCell="A2" sqref="A2:G2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="6.140625" customWidth="1"/>
-    <col min="2" max="2" width="13.5703125" customWidth="1"/>
-    <col min="3" max="3" width="15.42578125" customWidth="1"/>
-    <col min="4" max="4" width="44.7109375" customWidth="1"/>
-    <col min="5" max="5" width="18.85546875" customWidth="1"/>
-    <col min="6" max="6" width="18.140625" customWidth="1"/>
-    <col min="7" max="7" width="48.7109375" customWidth="1"/>
+    <col min="1" max="1" width="6.109375" customWidth="1"/>
+    <col min="2" max="2" width="13.5546875" customWidth="1"/>
+    <col min="3" max="3" width="15.44140625" customWidth="1"/>
+    <col min="4" max="4" width="44.6640625" customWidth="1"/>
+    <col min="5" max="5" width="18.88671875" customWidth="1"/>
+    <col min="6" max="6" width="18.109375" customWidth="1"/>
+    <col min="7" max="7" width="48.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>7</v>
       </c>
@@ -1036,7 +1036,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:7">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" s="1"/>
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
@@ -1045,46 +1045,46 @@
       <c r="F3" s="13"/>
       <c r="G3" s="1"/>
     </row>
-    <row r="4" spans="1:7" s="4" customFormat="1"/>
-    <row r="5" spans="1:7" s="4" customFormat="1"/>
-    <row r="6" spans="1:7" s="4" customFormat="1"/>
-    <row r="7" spans="1:7" s="4" customFormat="1"/>
-    <row r="8" spans="1:7" s="4" customFormat="1"/>
-    <row r="9" spans="1:7" s="4" customFormat="1"/>
-    <row r="10" spans="1:7" s="4" customFormat="1"/>
-    <row r="11" spans="1:7" s="4" customFormat="1"/>
-    <row r="12" spans="1:7" s="4" customFormat="1"/>
-    <row r="13" spans="1:7" s="4" customFormat="1"/>
-    <row r="14" spans="1:7" s="4" customFormat="1"/>
-    <row r="15" spans="1:7" s="4" customFormat="1"/>
-    <row r="16" spans="1:7" s="4" customFormat="1"/>
-    <row r="17" spans="2:3" s="4" customFormat="1"/>
-    <row r="18" spans="2:3" s="4" customFormat="1"/>
-    <row r="19" spans="2:3" s="4" customFormat="1"/>
-    <row r="22" spans="2:3">
+    <row r="4" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="5" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="6" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="7" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="8" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="9" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="10" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="11" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="12" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="13" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="14" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="15" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="16" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="17" spans="2:3" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="18" spans="2:3" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="19" spans="2:3" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="22" spans="2:3" x14ac:dyDescent="0.3">
       <c r="C22" s="12" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="2:3">
+    <row r="23" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B23" s="8"/>
       <c r="C23" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="24" spans="2:3">
+    <row r="24" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B24" s="9"/>
       <c r="C24" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="25" spans="2:3">
+    <row r="25" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B25" s="10"/>
       <c r="C25" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="26" spans="2:3">
+    <row r="26" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B26" s="11"/>
       <c r="C26" t="s">
         <v>11</v>
@@ -1097,26 +1097,26 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <sheetPr codeName="Sheet4"/>
   <dimension ref="A1:G26"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D19" sqref="D19"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:G3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="6.140625" customWidth="1"/>
-    <col min="2" max="2" width="13.5703125" customWidth="1"/>
-    <col min="3" max="3" width="15.42578125" customWidth="1"/>
-    <col min="4" max="4" width="44.7109375" customWidth="1"/>
-    <col min="5" max="5" width="18.85546875" customWidth="1"/>
-    <col min="6" max="6" width="18.140625" customWidth="1"/>
-    <col min="7" max="7" width="48.7109375" customWidth="1"/>
+    <col min="1" max="1" width="6.109375" customWidth="1"/>
+    <col min="2" max="2" width="13.5546875" customWidth="1"/>
+    <col min="3" max="3" width="15.44140625" customWidth="1"/>
+    <col min="4" max="4" width="44.6640625" customWidth="1"/>
+    <col min="5" max="5" width="18.88671875" customWidth="1"/>
+    <col min="6" max="6" width="18.109375" customWidth="1"/>
+    <col min="7" max="7" width="48.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>7</v>
       </c>
@@ -1139,7 +1139,243 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:7">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A2" s="1"/>
+      <c r="B2" s="6"/>
+      <c r="C2" s="1"/>
+      <c r="D2" s="1"/>
+      <c r="E2" s="7"/>
+      <c r="F2" s="10"/>
+      <c r="G2" s="1"/>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A3" s="1"/>
+      <c r="B3" s="1"/>
+      <c r="C3" s="1"/>
+      <c r="D3" s="1"/>
+      <c r="E3" s="1"/>
+      <c r="F3" s="10"/>
+      <c r="G3" s="1"/>
+    </row>
+    <row r="4" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="5" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="6" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="7" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="8" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="9" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="10" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="11" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="12" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="13" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="14" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="15" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="16" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="17" spans="2:3" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="18" spans="2:3" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="19" spans="2:3" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="22" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="C22" s="12" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B23" s="8"/>
+      <c r="C23" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B24" s="9"/>
+      <c r="C24" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="25" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B25" s="10"/>
+      <c r="C25" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="26" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B26" s="11"/>
+      <c r="C26" t="s">
+        <v>11</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+  <sheetPr codeName="Sheet5"/>
+  <dimension ref="A1:G26"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D10" sqref="D10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="6.109375" customWidth="1"/>
+    <col min="2" max="2" width="13.5546875" customWidth="1"/>
+    <col min="3" max="3" width="15.44140625" customWidth="1"/>
+    <col min="4" max="4" width="44.6640625" customWidth="1"/>
+    <col min="5" max="5" width="18.88671875" customWidth="1"/>
+    <col min="6" max="6" width="18.109375" customWidth="1"/>
+    <col min="7" max="7" width="48.6640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="E1" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="G1" s="5" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A2" s="1">
+        <v>1</v>
+      </c>
+      <c r="B2" s="6">
+        <v>43950</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E2" s="7">
+        <v>1</v>
+      </c>
+      <c r="F2" s="14" t="s">
+        <v>5</v>
+      </c>
+      <c r="G2" s="1"/>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A3" s="1"/>
+      <c r="B3" s="1"/>
+      <c r="C3" s="1"/>
+      <c r="D3" s="1"/>
+      <c r="E3" s="1"/>
+      <c r="F3" s="13"/>
+      <c r="G3" s="1"/>
+    </row>
+    <row r="4" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="5" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="6" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="7" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="8" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="9" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="10" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="11" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="12" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="13" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="14" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="15" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="16" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="17" spans="2:3" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="18" spans="2:3" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="19" spans="2:3" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="22" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="C22" s="12" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B23" s="8"/>
+      <c r="C23" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B24" s="9"/>
+      <c r="C24" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="25" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B25" s="10"/>
+      <c r="C25" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="26" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B26" s="11"/>
+      <c r="C26" t="s">
+        <v>11</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+  <sheetPr codeName="Sheet6"/>
+  <dimension ref="A1:G26"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E22" sqref="E22"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="6.109375" customWidth="1"/>
+    <col min="2" max="2" width="13.5546875" customWidth="1"/>
+    <col min="3" max="3" width="15.44140625" customWidth="1"/>
+    <col min="4" max="4" width="44.6640625" customWidth="1"/>
+    <col min="5" max="5" width="18.88671875" customWidth="1"/>
+    <col min="6" max="6" width="18.109375" customWidth="1"/>
+    <col min="7" max="7" width="48.6640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="E1" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="G1" s="5" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" s="1"/>
       <c r="B2" s="6"/>
       <c r="C2" s="1"/>
@@ -1148,7 +1384,7 @@
       <c r="F2" s="3"/>
       <c r="G2" s="1"/>
     </row>
-    <row r="3" spans="1:7">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" s="1"/>
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
@@ -1157,46 +1393,46 @@
       <c r="F3" s="13"/>
       <c r="G3" s="1"/>
     </row>
-    <row r="4" spans="1:7" s="4" customFormat="1"/>
-    <row r="5" spans="1:7" s="4" customFormat="1"/>
-    <row r="6" spans="1:7" s="4" customFormat="1"/>
-    <row r="7" spans="1:7" s="4" customFormat="1"/>
-    <row r="8" spans="1:7" s="4" customFormat="1"/>
-    <row r="9" spans="1:7" s="4" customFormat="1"/>
-    <row r="10" spans="1:7" s="4" customFormat="1"/>
-    <row r="11" spans="1:7" s="4" customFormat="1"/>
-    <row r="12" spans="1:7" s="4" customFormat="1"/>
-    <row r="13" spans="1:7" s="4" customFormat="1"/>
-    <row r="14" spans="1:7" s="4" customFormat="1"/>
-    <row r="15" spans="1:7" s="4" customFormat="1"/>
-    <row r="16" spans="1:7" s="4" customFormat="1"/>
-    <row r="17" spans="2:3" s="4" customFormat="1"/>
-    <row r="18" spans="2:3" s="4" customFormat="1"/>
-    <row r="19" spans="2:3" s="4" customFormat="1"/>
-    <row r="22" spans="2:3">
+    <row r="4" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="5" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="6" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="7" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="8" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="9" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="10" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="11" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="12" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="13" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="14" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="15" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="16" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="17" spans="2:3" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="18" spans="2:3" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="19" spans="2:3" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="22" spans="2:3" x14ac:dyDescent="0.3">
       <c r="C22" s="12" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="2:3">
+    <row r="23" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B23" s="8"/>
       <c r="C23" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="24" spans="2:3">
+    <row r="24" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B24" s="9"/>
       <c r="C24" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="25" spans="2:3">
+    <row r="25" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B25" s="10"/>
       <c r="C25" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="26" spans="2:3">
+    <row r="26" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B26" s="11"/>
       <c r="C26" t="s">
         <v>11</v>
@@ -1208,27 +1444,27 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr codeName="Sheet5"/>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
+  <sheetPr codeName="Sheet7"/>
   <dimension ref="A1:G26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+      <selection activeCell="F14" sqref="E14:F16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="6.140625" customWidth="1"/>
-    <col min="2" max="2" width="13.5703125" customWidth="1"/>
-    <col min="3" max="3" width="15.42578125" customWidth="1"/>
-    <col min="4" max="4" width="44.7109375" customWidth="1"/>
-    <col min="5" max="5" width="18.85546875" customWidth="1"/>
-    <col min="6" max="6" width="18.140625" customWidth="1"/>
-    <col min="7" max="7" width="48.7109375" customWidth="1"/>
+    <col min="1" max="1" width="6.109375" customWidth="1"/>
+    <col min="2" max="2" width="13.5546875" customWidth="1"/>
+    <col min="3" max="3" width="15.44140625" customWidth="1"/>
+    <col min="4" max="4" width="44.6640625" customWidth="1"/>
+    <col min="5" max="5" width="18.88671875" customWidth="1"/>
+    <col min="6" max="6" width="18.109375" customWidth="1"/>
+    <col min="7" max="7" width="48.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>7</v>
       </c>
@@ -1251,28 +1487,16 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:7">
-      <c r="A2" s="1">
-        <v>1</v>
-      </c>
-      <c r="B2" s="6">
-        <v>43950</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="E2" s="7">
-        <v>1</v>
-      </c>
-      <c r="F2" s="14" t="s">
-        <v>5</v>
-      </c>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A2" s="1"/>
+      <c r="B2" s="6"/>
+      <c r="C2" s="1"/>
+      <c r="D2" s="1"/>
+      <c r="E2" s="7"/>
+      <c r="F2" s="3"/>
       <c r="G2" s="1"/>
     </row>
-    <row r="3" spans="1:7">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" s="1"/>
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
@@ -1281,46 +1505,46 @@
       <c r="F3" s="13"/>
       <c r="G3" s="1"/>
     </row>
-    <row r="4" spans="1:7" s="4" customFormat="1"/>
-    <row r="5" spans="1:7" s="4" customFormat="1"/>
-    <row r="6" spans="1:7" s="4" customFormat="1"/>
-    <row r="7" spans="1:7" s="4" customFormat="1"/>
-    <row r="8" spans="1:7" s="4" customFormat="1"/>
-    <row r="9" spans="1:7" s="4" customFormat="1"/>
-    <row r="10" spans="1:7" s="4" customFormat="1"/>
-    <row r="11" spans="1:7" s="4" customFormat="1"/>
-    <row r="12" spans="1:7" s="4" customFormat="1"/>
-    <row r="13" spans="1:7" s="4" customFormat="1"/>
-    <row r="14" spans="1:7" s="4" customFormat="1"/>
-    <row r="15" spans="1:7" s="4" customFormat="1"/>
-    <row r="16" spans="1:7" s="4" customFormat="1"/>
-    <row r="17" spans="2:3" s="4" customFormat="1"/>
-    <row r="18" spans="2:3" s="4" customFormat="1"/>
-    <row r="19" spans="2:3" s="4" customFormat="1"/>
-    <row r="22" spans="2:3">
+    <row r="4" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="5" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="6" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="7" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="8" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="9" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="10" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="11" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="12" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="13" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="14" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="15" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="16" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="17" spans="2:3" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="18" spans="2:3" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="19" spans="2:3" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="22" spans="2:3" x14ac:dyDescent="0.3">
       <c r="C22" s="12" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="2:3">
+    <row r="23" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B23" s="8"/>
       <c r="C23" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="24" spans="2:3">
+    <row r="24" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B24" s="9"/>
       <c r="C24" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="25" spans="2:3">
+    <row r="25" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B25" s="10"/>
       <c r="C25" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="26" spans="2:3">
+    <row r="26" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B26" s="11"/>
       <c r="C26" t="s">
         <v>11</v>
@@ -1332,27 +1556,27 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr codeName="Sheet6"/>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
+  <sheetPr codeName="Sheet8"/>
   <dimension ref="A1:G26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E22" sqref="E22"/>
+      <selection activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="6.140625" customWidth="1"/>
-    <col min="2" max="2" width="13.5703125" customWidth="1"/>
-    <col min="3" max="3" width="15.42578125" customWidth="1"/>
-    <col min="4" max="4" width="44.7109375" customWidth="1"/>
-    <col min="5" max="5" width="18.85546875" customWidth="1"/>
-    <col min="6" max="6" width="18.140625" customWidth="1"/>
-    <col min="7" max="7" width="48.7109375" customWidth="1"/>
+    <col min="1" max="1" width="6.109375" customWidth="1"/>
+    <col min="2" max="2" width="13.5546875" customWidth="1"/>
+    <col min="3" max="3" width="15.44140625" customWidth="1"/>
+    <col min="4" max="4" width="44.6640625" customWidth="1"/>
+    <col min="5" max="5" width="18.88671875" customWidth="1"/>
+    <col min="6" max="6" width="18.109375" customWidth="1"/>
+    <col min="7" max="7" width="48.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>7</v>
       </c>
@@ -1375,7 +1599,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:7">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" s="1"/>
       <c r="B2" s="6"/>
       <c r="C2" s="1"/>
@@ -1384,7 +1608,7 @@
       <c r="F2" s="3"/>
       <c r="G2" s="1"/>
     </row>
-    <row r="3" spans="1:7">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" s="1"/>
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
@@ -1393,46 +1617,46 @@
       <c r="F3" s="13"/>
       <c r="G3" s="1"/>
     </row>
-    <row r="4" spans="1:7" s="4" customFormat="1"/>
-    <row r="5" spans="1:7" s="4" customFormat="1"/>
-    <row r="6" spans="1:7" s="4" customFormat="1"/>
-    <row r="7" spans="1:7" s="4" customFormat="1"/>
-    <row r="8" spans="1:7" s="4" customFormat="1"/>
-    <row r="9" spans="1:7" s="4" customFormat="1"/>
-    <row r="10" spans="1:7" s="4" customFormat="1"/>
-    <row r="11" spans="1:7" s="4" customFormat="1"/>
-    <row r="12" spans="1:7" s="4" customFormat="1"/>
-    <row r="13" spans="1:7" s="4" customFormat="1"/>
-    <row r="14" spans="1:7" s="4" customFormat="1"/>
-    <row r="15" spans="1:7" s="4" customFormat="1"/>
-    <row r="16" spans="1:7" s="4" customFormat="1"/>
-    <row r="17" spans="2:3" s="4" customFormat="1"/>
-    <row r="18" spans="2:3" s="4" customFormat="1"/>
-    <row r="19" spans="2:3" s="4" customFormat="1"/>
-    <row r="22" spans="2:3">
+    <row r="4" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="5" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="6" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="7" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="8" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="9" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="10" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="11" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="12" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="13" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="14" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="15" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="16" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="17" spans="2:3" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="18" spans="2:3" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="19" spans="2:3" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="22" spans="2:3" x14ac:dyDescent="0.3">
       <c r="C22" s="12" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="2:3">
+    <row r="23" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B23" s="8"/>
       <c r="C23" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="24" spans="2:3">
+    <row r="24" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B24" s="9"/>
       <c r="C24" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="25" spans="2:3">
+    <row r="25" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B25" s="10"/>
       <c r="C25" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="26" spans="2:3">
+    <row r="26" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B26" s="11"/>
       <c r="C26" t="s">
         <v>11</v>
@@ -1444,27 +1668,27 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr codeName="Sheet7"/>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
+  <sheetPr codeName="Sheet9"/>
   <dimension ref="A1:G26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F14" sqref="E14:F16"/>
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="6.140625" customWidth="1"/>
-    <col min="2" max="2" width="13.5703125" customWidth="1"/>
-    <col min="3" max="3" width="15.42578125" customWidth="1"/>
-    <col min="4" max="4" width="44.7109375" customWidth="1"/>
-    <col min="5" max="5" width="18.85546875" customWidth="1"/>
-    <col min="6" max="6" width="18.140625" customWidth="1"/>
-    <col min="7" max="7" width="48.7109375" customWidth="1"/>
+    <col min="1" max="1" width="6.109375" customWidth="1"/>
+    <col min="2" max="2" width="13.5546875" customWidth="1"/>
+    <col min="3" max="3" width="15.44140625" customWidth="1"/>
+    <col min="4" max="4" width="44.6640625" customWidth="1"/>
+    <col min="5" max="5" width="18.88671875" customWidth="1"/>
+    <col min="6" max="6" width="18.109375" customWidth="1"/>
+    <col min="7" max="7" width="48.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>7</v>
       </c>
@@ -1487,7 +1711,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:7">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" s="1"/>
       <c r="B2" s="6"/>
       <c r="C2" s="1"/>
@@ -1496,7 +1720,7 @@
       <c r="F2" s="3"/>
       <c r="G2" s="1"/>
     </row>
-    <row r="3" spans="1:7">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" s="1"/>
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
@@ -1505,270 +1729,46 @@
       <c r="F3" s="13"/>
       <c r="G3" s="1"/>
     </row>
-    <row r="4" spans="1:7" s="4" customFormat="1"/>
-    <row r="5" spans="1:7" s="4" customFormat="1"/>
-    <row r="6" spans="1:7" s="4" customFormat="1"/>
-    <row r="7" spans="1:7" s="4" customFormat="1"/>
-    <row r="8" spans="1:7" s="4" customFormat="1"/>
-    <row r="9" spans="1:7" s="4" customFormat="1"/>
-    <row r="10" spans="1:7" s="4" customFormat="1"/>
-    <row r="11" spans="1:7" s="4" customFormat="1"/>
-    <row r="12" spans="1:7" s="4" customFormat="1"/>
-    <row r="13" spans="1:7" s="4" customFormat="1"/>
-    <row r="14" spans="1:7" s="4" customFormat="1"/>
-    <row r="15" spans="1:7" s="4" customFormat="1"/>
-    <row r="16" spans="1:7" s="4" customFormat="1"/>
-    <row r="17" spans="2:3" s="4" customFormat="1"/>
-    <row r="18" spans="2:3" s="4" customFormat="1"/>
-    <row r="19" spans="2:3" s="4" customFormat="1"/>
-    <row r="22" spans="2:3">
+    <row r="4" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="5" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="6" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="7" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="8" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="9" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="10" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="11" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="12" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="13" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="14" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="15" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="16" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="17" spans="2:3" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="18" spans="2:3" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="19" spans="2:3" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="22" spans="2:3" x14ac:dyDescent="0.3">
       <c r="C22" s="12" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="2:3">
+    <row r="23" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B23" s="8"/>
       <c r="C23" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="24" spans="2:3">
+    <row r="24" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B24" s="9"/>
       <c r="C24" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="25" spans="2:3">
+    <row r="25" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B25" s="10"/>
       <c r="C25" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="26" spans="2:3">
-      <c r="B26" s="11"/>
-      <c r="C26" t="s">
-        <v>11</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr codeName="Sheet8"/>
-  <dimension ref="A1:G26"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E19" sqref="E19"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <cols>
-    <col min="1" max="1" width="6.140625" customWidth="1"/>
-    <col min="2" max="2" width="13.5703125" customWidth="1"/>
-    <col min="3" max="3" width="15.42578125" customWidth="1"/>
-    <col min="4" max="4" width="44.7109375" customWidth="1"/>
-    <col min="5" max="5" width="18.85546875" customWidth="1"/>
-    <col min="6" max="6" width="18.140625" customWidth="1"/>
-    <col min="7" max="7" width="48.7109375" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:7">
-      <c r="A1" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D1" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="E1" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="F1" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="G1" s="5" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7">
-      <c r="A2" s="1"/>
-      <c r="B2" s="6"/>
-      <c r="C2" s="1"/>
-      <c r="D2" s="1"/>
-      <c r="E2" s="7"/>
-      <c r="F2" s="3"/>
-      <c r="G2" s="1"/>
-    </row>
-    <row r="3" spans="1:7">
-      <c r="A3" s="1"/>
-      <c r="B3" s="1"/>
-      <c r="C3" s="1"/>
-      <c r="D3" s="1"/>
-      <c r="E3" s="1"/>
-      <c r="F3" s="13"/>
-      <c r="G3" s="1"/>
-    </row>
-    <row r="4" spans="1:7" s="4" customFormat="1"/>
-    <row r="5" spans="1:7" s="4" customFormat="1"/>
-    <row r="6" spans="1:7" s="4" customFormat="1"/>
-    <row r="7" spans="1:7" s="4" customFormat="1"/>
-    <row r="8" spans="1:7" s="4" customFormat="1"/>
-    <row r="9" spans="1:7" s="4" customFormat="1"/>
-    <row r="10" spans="1:7" s="4" customFormat="1"/>
-    <row r="11" spans="1:7" s="4" customFormat="1"/>
-    <row r="12" spans="1:7" s="4" customFormat="1"/>
-    <row r="13" spans="1:7" s="4" customFormat="1"/>
-    <row r="14" spans="1:7" s="4" customFormat="1"/>
-    <row r="15" spans="1:7" s="4" customFormat="1"/>
-    <row r="16" spans="1:7" s="4" customFormat="1"/>
-    <row r="17" spans="2:3" s="4" customFormat="1"/>
-    <row r="18" spans="2:3" s="4" customFormat="1"/>
-    <row r="19" spans="2:3" s="4" customFormat="1"/>
-    <row r="22" spans="2:3">
-      <c r="C22" s="12" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="23" spans="2:3">
-      <c r="B23" s="8"/>
-      <c r="C23" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="24" spans="2:3">
-      <c r="B24" s="9"/>
-      <c r="C24" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="25" spans="2:3">
-      <c r="B25" s="10"/>
-      <c r="C25" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="26" spans="2:3">
-      <c r="B26" s="11"/>
-      <c r="C26" t="s">
-        <v>11</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr codeName="Sheet9"/>
-  <dimension ref="A1:G26"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <cols>
-    <col min="1" max="1" width="6.140625" customWidth="1"/>
-    <col min="2" max="2" width="13.5703125" customWidth="1"/>
-    <col min="3" max="3" width="15.42578125" customWidth="1"/>
-    <col min="4" max="4" width="44.7109375" customWidth="1"/>
-    <col min="5" max="5" width="18.85546875" customWidth="1"/>
-    <col min="6" max="6" width="18.140625" customWidth="1"/>
-    <col min="7" max="7" width="48.7109375" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:7">
-      <c r="A1" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D1" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="E1" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="F1" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="G1" s="5" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7">
-      <c r="A2" s="1"/>
-      <c r="B2" s="6"/>
-      <c r="C2" s="1"/>
-      <c r="D2" s="1"/>
-      <c r="E2" s="7"/>
-      <c r="F2" s="3"/>
-      <c r="G2" s="1"/>
-    </row>
-    <row r="3" spans="1:7">
-      <c r="A3" s="1"/>
-      <c r="B3" s="1"/>
-      <c r="C3" s="1"/>
-      <c r="D3" s="1"/>
-      <c r="E3" s="1"/>
-      <c r="F3" s="13"/>
-      <c r="G3" s="1"/>
-    </row>
-    <row r="4" spans="1:7" s="4" customFormat="1"/>
-    <row r="5" spans="1:7" s="4" customFormat="1"/>
-    <row r="6" spans="1:7" s="4" customFormat="1"/>
-    <row r="7" spans="1:7" s="4" customFormat="1"/>
-    <row r="8" spans="1:7" s="4" customFormat="1"/>
-    <row r="9" spans="1:7" s="4" customFormat="1"/>
-    <row r="10" spans="1:7" s="4" customFormat="1"/>
-    <row r="11" spans="1:7" s="4" customFormat="1"/>
-    <row r="12" spans="1:7" s="4" customFormat="1"/>
-    <row r="13" spans="1:7" s="4" customFormat="1"/>
-    <row r="14" spans="1:7" s="4" customFormat="1"/>
-    <row r="15" spans="1:7" s="4" customFormat="1"/>
-    <row r="16" spans="1:7" s="4" customFormat="1"/>
-    <row r="17" spans="2:3" s="4" customFormat="1"/>
-    <row r="18" spans="2:3" s="4" customFormat="1"/>
-    <row r="19" spans="2:3" s="4" customFormat="1"/>
-    <row r="22" spans="2:3">
-      <c r="C22" s="12" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="23" spans="2:3">
-      <c r="B23" s="8"/>
-      <c r="C23" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="24" spans="2:3">
-      <c r="B24" s="9"/>
-      <c r="C24" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="25" spans="2:3">
-      <c r="B25" s="10"/>
-      <c r="C25" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="26" spans="2:3">
+    <row r="26" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B26" s="11"/>
       <c r="C26" t="s">
         <v>11</v>
